--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H2">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>0.740200075776</v>
+        <v>40.21486520290489</v>
       </c>
       <c r="R2">
-        <v>6.661800681983999</v>
+        <v>361.933786826144</v>
       </c>
       <c r="S2">
-        <v>0.01015917304444061</v>
+        <v>0.6427162588420772</v>
       </c>
       <c r="T2">
-        <v>0.01015917304444061</v>
+        <v>0.6427162588420772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H3">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>0.227386549152</v>
+        <v>13.89217658780178</v>
       </c>
       <c r="R3">
-        <v>2.046478942368</v>
+        <v>125.029589290216</v>
       </c>
       <c r="S3">
-        <v>0.00312085796315487</v>
+        <v>0.2220255549443068</v>
       </c>
       <c r="T3">
-        <v>0.00312085796315487</v>
+        <v>0.2220255549443069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H4">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I4">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J4">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>0.130753683648</v>
+        <v>4.552653072008889</v>
       </c>
       <c r="R4">
-        <v>1.176783152832</v>
+        <v>40.97387764808001</v>
       </c>
       <c r="S4">
-        <v>0.001794581413661004</v>
+        <v>0.0727607598703596</v>
       </c>
       <c r="T4">
-        <v>0.001794581413661004</v>
+        <v>0.07276075987035961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H5">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I5">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J5">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>45.22250854913422</v>
+        <v>2.680873254693333</v>
       </c>
       <c r="R5">
-        <v>407.002576942208</v>
+        <v>24.12785929224</v>
       </c>
       <c r="S5">
-        <v>0.6206744701730893</v>
+        <v>0.0428458685611066</v>
       </c>
       <c r="T5">
-        <v>0.6206744701730894</v>
+        <v>0.0428458685611066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H6">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I6">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J6">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>13.89217658780178</v>
+        <v>0.9261044262066667</v>
       </c>
       <c r="R6">
-        <v>125.029589290216</v>
+        <v>8.33493983586</v>
       </c>
       <c r="S6">
-        <v>0.1906687536764243</v>
+        <v>0.01480105351852931</v>
       </c>
       <c r="T6">
-        <v>0.1906687536764243</v>
+        <v>0.01480105351852931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H7">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I7">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J7">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>7.988393638575999</v>
+        <v>0.3034968735333333</v>
       </c>
       <c r="R7">
-        <v>71.89554274718401</v>
+        <v>2.7314718618</v>
       </c>
       <c r="S7">
-        <v>0.109639914905874</v>
+        <v>0.00485050426362043</v>
       </c>
       <c r="T7">
-        <v>0.109639914905874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.23189</v>
-      </c>
-      <c r="I8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>4.220261333333333</v>
-      </c>
-      <c r="N8">
-        <v>12.660784</v>
-      </c>
-      <c r="O8">
-        <v>0.6739259863235564</v>
-      </c>
-      <c r="P8">
-        <v>0.6739259863235564</v>
-      </c>
-      <c r="Q8">
-        <v>3.139719689084444</v>
-      </c>
-      <c r="R8">
-        <v>28.25747720176</v>
-      </c>
-      <c r="S8">
-        <v>0.04309234310602641</v>
-      </c>
-      <c r="T8">
-        <v>0.04309234310602641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.23189</v>
-      </c>
-      <c r="I9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.296447666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.889343</v>
-      </c>
-      <c r="O9">
-        <v>0.2070274097896007</v>
-      </c>
-      <c r="P9">
-        <v>0.2070274097896007</v>
-      </c>
-      <c r="Q9">
-        <v>0.9645095275855555</v>
-      </c>
-      <c r="R9">
-        <v>8.68058574827</v>
-      </c>
-      <c r="S9">
-        <v>0.01323779815002152</v>
-      </c>
-      <c r="T9">
-        <v>0.01323779815002152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.23189</v>
-      </c>
-      <c r="I10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.745494</v>
-      </c>
-      <c r="N10">
-        <v>2.236482</v>
-      </c>
-      <c r="O10">
-        <v>0.119046603886843</v>
-      </c>
-      <c r="P10">
-        <v>0.119046603886843</v>
-      </c>
-      <c r="Q10">
-        <v>0.55462020122</v>
-      </c>
-      <c r="R10">
-        <v>4.99158181098</v>
-      </c>
-      <c r="S10">
-        <v>0.007612107567308009</v>
-      </c>
-      <c r="T10">
-        <v>0.007612107567308009</v>
+        <v>0.00485050426362043</v>
       </c>
     </row>
   </sheetData>
